--- a/occupations_comparison.xlsx
+++ b/occupations_comparison.xlsx
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.272727272727273</v>
+        <v>2.214244566031925</v>
       </c>
       <c r="E2" t="n">
-        <v>1.458333333333333</v>
+        <v>1.689150265165335</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8143939393939397</v>
+        <v>0.5250943008665907</v>
       </c>
       <c r="G2" t="n">
-        <v>3.909668943020703</v>
+        <v>0.6851667858582484</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0003202906725035777</v>
+        <v>0.4955133040193723</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -526,33 +526,33 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>nurse</t>
+          <t>HR personnel</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>nővér</t>
+          <t>HR-es</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>护士</t>
+          <t>人事</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.318181818181818</v>
+        <v>2.00474177489521</v>
       </c>
       <c r="E3" t="n">
-        <v>1.583333333333333</v>
+        <v>1.707188165441415</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2651515151515151</v>
+        <v>0.2975536094537949</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.122657639589635</v>
+        <v>0.1778667376774722</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2661014681368459</v>
+        <v>0.8593444403813281</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -578,22 +578,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.772727272727273</v>
+        <v>2.234053636379847</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5</v>
+        <v>1.383564250629585</v>
       </c>
       <c r="F4" t="n">
-        <v>1.272727272727273</v>
+        <v>0.8504893857502624</v>
       </c>
       <c r="G4" t="n">
-        <v>5.02978833658533</v>
+        <v>0.7602086055789555</v>
       </c>
       <c r="H4" t="n">
-        <v>1.000443051942479e-05</v>
+        <v>0.4496925005786662</v>
       </c>
       <c r="I4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -602,36 +602,36 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>receptionist</t>
+          <t>cashier</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>recepciós</t>
+          <t>pénztáros</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前台</t>
+          <t>收银员</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.6818181818181818</v>
+        <v>1.688484805006932</v>
       </c>
       <c r="E5" t="n">
-        <v>1.375</v>
+        <v>1.543161302033584</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6931818181818182</v>
+        <v>0.1453235029733477</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.611683272919604</v>
+        <v>0.1253513148178627</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01237725738399187</v>
+        <v>0.9006072668834915</v>
       </c>
       <c r="I5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
@@ -640,33 +640,33 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cashier</t>
+          <t>flight attendant</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pénztáros</t>
+          <t>légiutas-kísérő</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>收银员</t>
+          <t>乘务员</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.045454545454545</v>
+        <v>1.813139830270556</v>
       </c>
       <c r="E6" t="n">
-        <v>0.875</v>
+        <v>1.147564704309986</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1704545454545454</v>
+        <v>0.6655751259605707</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7502582855355107</v>
+        <v>0.7506692874744862</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4574500137904128</v>
+        <v>0.4553778197401077</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -678,36 +678,36 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>flight attendant</t>
+          <t>cleaner</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>légiutas-kísérő</t>
+          <t>takarító</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>乘务员</t>
+          <t>保洁</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.454545454545455</v>
+        <v>1.426629836039373</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4583333333333333</v>
+        <v>1.133298493550758</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9962121212121213</v>
+        <v>0.2933313424886148</v>
       </c>
       <c r="G7" t="n">
-        <v>4.587243492317245</v>
+        <v>0.4397708628378048</v>
       </c>
       <c r="H7" t="n">
-        <v>4.222435277709455e-05</v>
+        <v>0.6614685742038651</v>
       </c>
       <c r="I7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
@@ -716,33 +716,33 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>cleaner</t>
+          <t>shop assistant</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>takarító</t>
+          <t>bolti eladó</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>保洁</t>
+          <t>导购员</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.136363636363636</v>
+        <v>1.309530528936863</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7083333333333334</v>
+        <v>1.211718067913249</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4280303030303031</v>
+        <v>0.09781246102361418</v>
       </c>
       <c r="G8" t="n">
-        <v>1.440618591769902</v>
+        <v>0.1332371512985047</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1576319806530823</v>
+        <v>0.8943911975535933</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -754,33 +754,33 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>shop assistant</t>
+          <t>dietitian</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>bolti eladó</t>
+          <t>dietetikus</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>导购员</t>
+          <t>营养师</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9545454545454546</v>
+        <v>1.419237826172546</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8333333333333334</v>
+        <v>1.072251997730786</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.3469858284417591</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5460373388053767</v>
+        <v>0.3182197759908763</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5881534369859585</v>
+        <v>0.7512707168598587</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -792,33 +792,33 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>caregiver</t>
+          <t>student</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>gondozó</t>
+          <t>diák</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>护工</t>
+          <t>学生</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>1.142947493647433</v>
       </c>
       <c r="E10" t="n">
-        <v>0.625</v>
+        <v>1.054139521017842</v>
       </c>
       <c r="F10" t="n">
-        <v>0.375</v>
+        <v>0.08880797262959095</v>
       </c>
       <c r="G10" t="n">
-        <v>1.354655785672191</v>
+        <v>0.05642496493814684</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1835508305199453</v>
+        <v>0.955165127828329</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -830,33 +830,33 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HR personnel</t>
+          <t>caregiver</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HR-es</t>
+          <t>gondozó</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>人事</t>
+          <t>护工</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9545454545454546</v>
+        <v>1.191398151202677</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.9378090619484782</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3712121212121212</v>
+        <v>0.2535890892541988</v>
       </c>
       <c r="G11" t="n">
-        <v>1.511105019686218</v>
+        <v>0.5246352248636889</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1379154635688628</v>
+        <v>0.6015125244089761</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -868,36 +868,36 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>scientist</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>modell</t>
+          <t>tudós</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>模特</t>
+          <t>科学家</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.045454545454545</v>
+        <v>1.103231326758787</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.9895431469339879</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7121212121212122</v>
+        <v>0.1136881798247995</v>
       </c>
       <c r="G12" t="n">
-        <v>3.185238854850059</v>
+        <v>0.06231631952704408</v>
       </c>
       <c r="H12" t="n">
-        <v>0.003047683657907094</v>
+        <v>0.9504897327789735</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="b">
         <v>0</v>
@@ -906,33 +906,33 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>accountant</t>
+          <t>prosecutor</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>könyvelő</t>
+          <t>ügyész</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>会计</t>
+          <t>检察官</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.5</v>
+        <v>0.9978469498197561</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5</v>
+        <v>1.079044411991661</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-0.08119746217190527</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-0.04256627530463025</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0.9661694250258228</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -944,33 +944,33 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dietitian</t>
+          <t>nurse</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>dietetikus</t>
+          <t>ápoló</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>营养师</t>
+          <t>护士</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.6636163162834872</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2083333333333333</v>
+        <v>1.411528947835731</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4734848484848484</v>
+        <v>-0.7479126315522442</v>
       </c>
       <c r="G14" t="n">
-        <v>2.590566664590173</v>
+        <v>-2.975392318005643</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01306655515508556</v>
+        <v>0.004287013866182085</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -982,36 +982,36 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>secretary</t>
+          <t>ticket seller</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>titkár</t>
+          <t>jegyárus</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>秘书</t>
+          <t>售票员</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-0.2272727272727273</v>
+        <v>1.018329792895253</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9583333333333334</v>
+        <v>1.04436602030632</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.185606060606061</v>
+        <v>-0.02603622741106704</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.151097852083383</v>
+        <v>-0.02558591902117143</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0002721353303476533</v>
+        <v>0.9796610310153264</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
@@ -1020,33 +1020,33 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ticket seller</t>
+          <t>receptionist</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jegyárus</t>
+          <t>recepciós</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>售票员</t>
+          <t>前台</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.2272727272727273</v>
+        <v>0.8052695573955293</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3333333333333333</v>
+        <v>1.248227959698474</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.106060606060606</v>
+        <v>-0.4429584023029443</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.5641784799800005</v>
+        <v>-1.419779693822302</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5762078195213023</v>
+        <v>0.1601102533731725</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -1058,36 +1058,36 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>model</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>tanár</t>
+          <t>modell</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>教师</t>
+          <t>模特</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.147187682445409</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.6797721320429547</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5416666666666666</v>
+        <v>0.4674155504024545</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.113894473236767</v>
+        <v>1.074247304066643</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0416603615807663</v>
+        <v>0.2864330436197982</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="b">
         <v>0</v>
@@ -1110,22 +1110,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>1.460891483413896</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.75</v>
+        <v>0.3008432951212524</v>
       </c>
       <c r="F18" t="n">
-        <v>1.75</v>
+        <v>1.160048188292643</v>
       </c>
       <c r="G18" t="n">
-        <v>7.312199986209629</v>
+        <v>1.217581108829104</v>
       </c>
       <c r="H18" t="n">
-        <v>5.736293580683683e-09</v>
+        <v>0.2274762384088194</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
@@ -1134,33 +1134,33 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>accountant</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>diák</t>
+          <t>könyvelő</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>学生</t>
+          <t>会计</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.8411988109897802</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.04166666666666666</v>
+        <v>0.8227556320173597</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.01844317897242054</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.03331449921116954</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3277158061428587</v>
+        <v>0.9735194295108621</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -1172,36 +1172,36 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>waiter</t>
+          <t>architect</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pincér</t>
+          <t>építész</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>服务员</t>
+          <t>建筑师</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-0.5</v>
+        <v>0.7129434487322858</v>
       </c>
       <c r="E20" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.9176492082602703</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5833333333333334</v>
+        <v>-0.2047057595279845</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.631147236438226</v>
+        <v>-0.1022796617540519</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01372319612133357</v>
+        <v>0.918829563646351</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
@@ -1210,33 +1210,33 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>judge</t>
+          <t>gardener</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>bíró</t>
+          <t>kertész</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>法官</t>
+          <t>园丁</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-0.1818181818181818</v>
+        <v>0.6393998807043083</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.375</v>
+        <v>0.8751079952608321</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1931818181818182</v>
+        <v>-0.2357081145565237</v>
       </c>
       <c r="G21" t="n">
-        <v>1.137359285196932</v>
+        <v>-0.1437727181350206</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2617076106771504</v>
+        <v>0.8860968100518363</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -1262,22 +1262,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-0.5454545454545454</v>
+        <v>0.632502874851265</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.2083333333333333</v>
+        <v>0.787502719453899</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.337121212121212</v>
+        <v>-0.1549998446026341</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.054339620052613</v>
+        <v>-0.1217526264886086</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04627231293429205</v>
+        <v>0.9034467727536019</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
@@ -1286,33 +1286,33 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>scientist</t>
+          <t>waiter</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>tudós</t>
+          <t>pincér</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>科学家</t>
+          <t>服务员</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-0.4090909090909091</v>
+        <v>0.3756426803280242</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.4583333333333333</v>
+        <v>0.7066890219319147</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0492424242424242</v>
+        <v>-0.3310463416038906</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2675243827289994</v>
+        <v>-0.3922879888413415</v>
       </c>
       <c r="H23" t="n">
-        <v>0.7903159835620165</v>
+        <v>0.6960554524329807</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -1324,36 +1324,36 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>prosecutor</t>
+          <t>secretary</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ügyész</t>
+          <t>titkár</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>检察官</t>
+          <t>秘书</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-0.6818181818181818</v>
+        <v>0.1664367493548222</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.4166666666666667</v>
+        <v>0.9141969250653722</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.2651515151515151</v>
+        <v>-0.7477601757105501</v>
       </c>
       <c r="G24" t="n">
-        <v>-1.29631838610589</v>
+        <v>-3.45295135159253</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2025301752938543</v>
+        <v>0.001155450226851422</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="b">
         <v>0</v>
@@ -1362,33 +1362,33 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>manager</t>
+          <t>director</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>menedzser</t>
+          <t>rendező</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>高管</t>
+          <t>导演</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-0.6818181818181818</v>
+        <v>0.516848715230487</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.5</v>
+        <v>0.5429650008937037</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.1818181818181818</v>
+        <v>-0.02611628566321667</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.8932259348678961</v>
+        <v>-0.01806103265014593</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3767374182940921</v>
+        <v>0.9856419339864073</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -1400,36 +1400,36 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>gardener</t>
+          <t>pathologist</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>kertész</t>
+          <t>kórboncnok</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>园丁</t>
+          <t>法医</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-0.9090909090909091</v>
+        <v>0.5253197417791621</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.4166666666666667</v>
+        <v>0.4428700260073155</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.4924242424242424</v>
+        <v>0.08244971577184662</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.073820206781514</v>
+        <v>0.06191263746607177</v>
       </c>
       <c r="H26" t="n">
-        <v>0.04500389931624605</v>
+        <v>0.9508100296821365</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="b">
         <v>0</v>
@@ -1438,71 +1438,71 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>professor</t>
+          <t>farmer</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>professzor</t>
+          <t>földműves</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>教授</t>
+          <t>农民</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-0.9090909090909091</v>
+        <v>0.2115425618873981</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.4583333333333333</v>
+        <v>0.740648369352944</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.4507575757575757</v>
+        <v>-0.5291058074655459</v>
       </c>
       <c r="G27" t="n">
-        <v>-1.971422077450163</v>
+        <v>-0.3359620752479485</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05578924006946497</v>
+        <v>0.7379152038184321</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
       </c>
       <c r="J27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>pathologist</t>
+          <t>lifeguard</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>kórboncnok</t>
+          <t>vízimentő</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>法医</t>
+          <t>救生员</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-0.7727272727272727</v>
+        <v>0.6078567763058594</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.7916666666666666</v>
+        <v>0.3317564100190563</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01893939393939392</v>
+        <v>0.2761003662868031</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07802656104019065</v>
+        <v>0.1394562239259626</v>
       </c>
       <c r="H28" t="n">
-        <v>0.938162136118182</v>
+        <v>0.8894925945046861</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
@@ -1514,33 +1514,33 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>director</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>rendező</t>
+          <t>tanár</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>导演</t>
+          <t>教师</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-0.8636363636363636</v>
+        <v>0.2957019570409536</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.7083333333333334</v>
+        <v>0.6310694188225237</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.1553030303030303</v>
+        <v>-0.3353674617815701</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.7508952253053734</v>
+        <v>-1.198005076343347</v>
       </c>
       <c r="H29" t="n">
-        <v>0.4567678185235475</v>
+        <v>0.2352147214182862</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -1552,71 +1552,71 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>architect</t>
+          <t>judge</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>építész</t>
+          <t>bíró</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>建筑师</t>
+          <t>法官</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-1.181818181818182</v>
+        <v>0.4608549155398574</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.7083333333333334</v>
+        <v>0.3008087038890543</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.4734848484848485</v>
+        <v>0.1600462116508031</v>
       </c>
       <c r="G30" t="n">
-        <v>-1.930481285265844</v>
+        <v>0.2206150464900246</v>
       </c>
       <c r="H30" t="n">
-        <v>0.06014376954219001</v>
+        <v>0.826037365242643</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
       </c>
       <c r="J30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>chef</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>szakács</t>
+          <t>vezérigazgató</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>厨师</t>
+          <t>董事长</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-0.8636363636363636</v>
+        <v>0.2620455812021354</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.041666666666667</v>
+        <v>0.4370701443803983</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1780303030303031</v>
+        <v>-0.1750245631782629</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8264912815316227</v>
+        <v>-0.1137714191897364</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4129899911933281</v>
+        <v>0.9097473988206721</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -1628,36 +1628,36 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>farmer</t>
+          <t>pilot</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>földműves</t>
+          <t>pilóta</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>农民</t>
+          <t>飞行员</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-1.5</v>
+        <v>0.08028224849280179</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.5416666666666666</v>
+        <v>0.4272940188445424</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.9583333333333334</v>
+        <v>-0.3470117703517406</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.2781625152861</v>
+        <v>-0.20347752814939</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0001002275601044132</v>
+        <v>0.8393578083174007</v>
       </c>
       <c r="I32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="b">
         <v>0</v>
@@ -1666,33 +1666,33 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>engineer</t>
+          <t>chef</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>mérnök</t>
+          <t>szakács</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>工程师</t>
+          <t>厨师</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-1.181818181818182</v>
+        <v>0.2819104436170402</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.875</v>
+        <v>0.1045098790972002</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.3068181818181819</v>
+        <v>0.17740056451984</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.227569452533109</v>
+        <v>0.1609752898997194</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2261436495059367</v>
+        <v>0.8725791846628935</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -1704,71 +1704,71 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CEO</t>
+          <t>programmer</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>vezérigazgató</t>
+          <t>programozó</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>董事长</t>
+          <t>程序员</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-1.272727272727273</v>
+        <v>0.0389285145512292</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.875</v>
+        <v>0.1719594056565682</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.3977272727272727</v>
+        <v>-0.133030891105339</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.868613756136638</v>
+        <v>-0.09573018900614018</v>
       </c>
       <c r="H34" t="n">
-        <v>0.06835182058184208</v>
+        <v>0.9240106405116182</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
       </c>
       <c r="J34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>police officer</t>
+          <t>soldier</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>rendőr</t>
+          <t>katona</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>警察</t>
+          <t>军人</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>-1.363636363636364</v>
+        <v>-0.2143712397095195</v>
       </c>
       <c r="E35" t="n">
-        <v>-1.125</v>
+        <v>0.256675854328833</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2386363636363635</v>
+        <v>-0.4710470940383525</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.138167796810742</v>
+        <v>-0.3106033417460479</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2618962651646959</v>
+        <v>0.7570348897552219</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -1780,33 +1780,33 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>programmer</t>
+          <t>firefighter</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>programozó</t>
+          <t>tűzoltó</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>程序员</t>
+          <t>消防员</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-1.409090909090909</v>
+        <v>-0.2508792421020838</v>
       </c>
       <c r="E36" t="n">
-        <v>-1.083333333333333</v>
+        <v>-0.04812901279926868</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.3257575757575759</v>
+        <v>-0.2027502293028151</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.463305286973424</v>
+        <v>-0.1096779513923369</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1504996708915435</v>
+        <v>0.9129813206929136</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -1818,33 +1818,33 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>worker</t>
+          <t>manager</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>munkás</t>
+          <t>menedzser</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>工人</t>
+          <t>高管</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>-1.545454545454545</v>
+        <v>-0.2752664689428957</v>
       </c>
       <c r="E37" t="n">
-        <v>-1.125</v>
+        <v>-0.1793061192703068</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.4204545454545454</v>
+        <v>-0.09596034967258896</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.65843372970663</v>
+        <v>-0.3482864858665806</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1046906003137016</v>
+        <v>0.7286858204480503</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
@@ -1856,36 +1856,36 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>pilot</t>
+          <t>engineer</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pilóta</t>
+          <t>mérnök</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>飞行员</t>
+          <t>工程师</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-1.681818181818182</v>
+        <v>-0.345698929788704</v>
       </c>
       <c r="E38" t="n">
-        <v>-1</v>
+        <v>-0.1918773660163416</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.6818181818181819</v>
+        <v>-0.1538215637723624</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.187230903160563</v>
+        <v>-0.2214388823794657</v>
       </c>
       <c r="H38" t="n">
-        <v>0.002735590921450158</v>
+        <v>0.8254008444397521</v>
       </c>
       <c r="I38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="b">
         <v>0</v>
@@ -1894,33 +1894,33 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>lifeguard</t>
+          <t>security guard</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>vízimentő</t>
+          <t>biztonsági őr</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>救生员</t>
+          <t>保安</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-1.227272727272727</v>
+        <v>-0.2987733082749943</v>
       </c>
       <c r="E39" t="n">
-        <v>-1.5</v>
+        <v>-0.2826233997195893</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2727272727272727</v>
+        <v>-0.01614990855540499</v>
       </c>
       <c r="G39" t="n">
-        <v>1.021553816602953</v>
+        <v>-0.01112394029493432</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3126708528207452</v>
+        <v>0.9911564331863734</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
@@ -1932,36 +1932,36 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>soldier</t>
+          <t>professor</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>katona</t>
+          <t>professzor</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>军人</t>
+          <t>教授</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>-1.863636363636364</v>
+        <v>-0.4309894664573204</v>
       </c>
       <c r="E40" t="n">
-        <v>-1</v>
+        <v>-0.1644494952974653</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.8636363636363635</v>
+        <v>-0.2665399711598551</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.086543426949811</v>
+        <v>-1.17222831495633</v>
       </c>
       <c r="H40" t="n">
-        <v>0.00018377507992935</v>
+        <v>0.2454170565463505</v>
       </c>
       <c r="I40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="b">
         <v>0</v>
@@ -1970,33 +1970,33 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>security guard</t>
+          <t>worker</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>biztonsági őr</t>
+          <t>munkás</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>保安</t>
+          <t>工人</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>-1.954545454545455</v>
+        <v>-0.7882028658213663</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.791666666666667</v>
+        <v>-0.5564081163175086</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.1628787878787878</v>
+        <v>-0.2317947495038577</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.9050529619874194</v>
+        <v>-0.5382346011294635</v>
       </c>
       <c r="H41" t="n">
-        <v>0.370786175219575</v>
+        <v>0.5921596910835691</v>
       </c>
       <c r="I41" t="b">
         <v>0</v>
@@ -2008,36 +2008,36 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>firefighter</t>
+          <t>police officer</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>tűzoltó</t>
+          <t>rendőr</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>消防员</t>
+          <t>警察</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>-2.272727272727273</v>
+        <v>-0.8393539413754092</v>
       </c>
       <c r="E42" t="n">
-        <v>-1.791666666666667</v>
+        <v>-0.7129023769767384</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.4810606060606062</v>
+        <v>-0.1264515643986708</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.1860799100449</v>
+        <v>-0.5395929186898031</v>
       </c>
       <c r="H42" t="n">
-        <v>0.03429839325138778</v>
+        <v>0.5912706289420576</v>
       </c>
       <c r="I42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="b">
         <v>0</v>

--- a/occupations_comparison.xlsx
+++ b/occupations_comparison.xlsx
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.214244566031925</v>
+        <v>2.272727272727273</v>
       </c>
       <c r="E2" t="n">
-        <v>1.689150265165335</v>
+        <v>1.458333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5250943008665907</v>
+        <v>0.8143939393939397</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6851667858582484</v>
+        <v>3.909668943020703</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4955133040193723</v>
+        <v>0.0003202906725035777</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -526,33 +526,33 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HR personnel</t>
+          <t>nurse</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HR-es</t>
+          <t>nővér</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>人事</t>
+          <t>护士</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.00474177489521</v>
+        <v>1.318181818181818</v>
       </c>
       <c r="E3" t="n">
-        <v>1.707188165441415</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2975536094537949</v>
+        <v>-0.2651515151515151</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1778667376774722</v>
+        <v>-1.122657639589635</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8593444403813281</v>
+        <v>0.2661014681368459</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -578,22 +578,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.234053636379847</v>
+        <v>1.772727272727273</v>
       </c>
       <c r="E4" t="n">
-        <v>1.383564250629585</v>
+        <v>0.5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8504893857502624</v>
+        <v>1.272727272727273</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7602086055789555</v>
+        <v>5.02978833658533</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4496925005786662</v>
+        <v>1.000443051942479e-05</v>
       </c>
       <c r="I4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -602,36 +602,36 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cashier</t>
+          <t>receptionist</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pénztáros</t>
+          <t>recepciós</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>收银员</t>
+          <t>前台</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.688484805006932</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="E5" t="n">
-        <v>1.543161302033584</v>
+        <v>1.375</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1453235029733477</v>
+        <v>-0.6931818181818182</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1253513148178627</v>
+        <v>-2.611683272919604</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9006072668834915</v>
+        <v>0.01237725738399187</v>
       </c>
       <c r="I5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
@@ -650,26 +650,26 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>乘务员</t>
+          <t>空服员</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.813139830270556</v>
+        <v>1.454545454545455</v>
       </c>
       <c r="E6" t="n">
-        <v>1.147564704309986</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6655751259605707</v>
+        <v>0.8712121212121212</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7506692874744862</v>
+        <v>4.329116625729191</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4553778197401077</v>
+        <v>0.0001050419318709086</v>
       </c>
       <c r="I6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -678,33 +678,33 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>cleaner</t>
+          <t>cashier</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>takarító</t>
+          <t>pénztáros</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>保洁</t>
+          <t>收银员</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.426629836039373</v>
+        <v>1.045454545454545</v>
       </c>
       <c r="E7" t="n">
-        <v>1.133298493550758</v>
+        <v>0.875</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2933313424886148</v>
+        <v>0.1704545454545454</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4397708628378048</v>
+        <v>0.7502582855355107</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6614685742038651</v>
+        <v>0.4574500137904128</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -716,33 +716,33 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>shop assistant</t>
+          <t>cleaner</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>bolti eladó</t>
+          <t>takarító</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>导购员</t>
+          <t>保洁</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.309530528936863</v>
+        <v>1.136363636363636</v>
       </c>
       <c r="E8" t="n">
-        <v>1.211718067913249</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09781246102361418</v>
+        <v>0.4280303030303031</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1332371512985047</v>
+        <v>1.440618591769902</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8943911975535933</v>
+        <v>0.1576319806530823</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -754,33 +754,33 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dietitian</t>
+          <t>shop assistant</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>dietetikus</t>
+          <t>bolti eladó</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>营养师</t>
+          <t>导购员</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.419237826172546</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="E9" t="n">
-        <v>1.072251997730786</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3469858284417591</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3182197759908763</v>
+        <v>0.5460373388053767</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7512707168598587</v>
+        <v>0.5881534369859585</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -792,33 +792,33 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>caregiver</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>diák</t>
+          <t>gondozó</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>学生</t>
+          <t>护工</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.142947493647433</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1.054139521017842</v>
+        <v>0.625</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08880797262959095</v>
+        <v>0.375</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05642496493814684</v>
+        <v>1.354655785672191</v>
       </c>
       <c r="H10" t="n">
-        <v>0.955165127828329</v>
+        <v>0.1835508305199453</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -830,33 +830,33 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>caregiver</t>
+          <t>HR personnel</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>gondozó</t>
+          <t>HR-es</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>护工</t>
+          <t>人事</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.191398151202677</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9378090619484782</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2535890892541988</v>
+        <v>0.3712121212121212</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5246352248636889</v>
+        <v>1.511105019686218</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6015125244089761</v>
+        <v>0.1379154635688628</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -868,36 +868,36 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>scientist</t>
+          <t>model</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>tudós</t>
+          <t>modell</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>科学家</t>
+          <t>模特</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.103231326758787</v>
+        <v>1.045454545454545</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9895431469339879</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1136881798247995</v>
+        <v>0.7121212121212122</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06231631952704408</v>
+        <v>3.185238854850059</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9504897327789735</v>
+        <v>0.003047683657907094</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="b">
         <v>0</v>
@@ -906,33 +906,33 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>prosecutor</t>
+          <t>accountant</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ügyész</t>
+          <t>könyvelő</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>检察官</t>
+          <t>会计</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.9978469498197561</v>
+        <v>0.5</v>
       </c>
       <c r="E13" t="n">
-        <v>1.079044411991661</v>
+        <v>0.5</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.08119746217190527</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.04256627530463025</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9661694250258228</v>
+        <v>1</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -944,33 +944,33 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>nurse</t>
+          <t>dietitian</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ápoló</t>
+          <t>dietetikus</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>护士</t>
+          <t>营养师</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.6636163162834872</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="E14" t="n">
-        <v>1.411528947835731</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7479126315522442</v>
+        <v>0.4734848484848484</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.975392318005643</v>
+        <v>2.590566664590173</v>
       </c>
       <c r="H14" t="n">
-        <v>0.004287013866182085</v>
+        <v>0.01306655515508556</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -982,36 +982,36 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ticket seller</t>
+          <t>secretary</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jegyárus</t>
+          <t>titkár</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>售票员</t>
+          <t>秘书</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.018329792895253</v>
+        <v>-0.2272727272727273</v>
       </c>
       <c r="E15" t="n">
-        <v>1.04436602030632</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.02603622741106704</v>
+        <v>-1.185606060606061</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.02558591902117143</v>
+        <v>-4.151097852083383</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9796610310153264</v>
+        <v>0.0002721353303476533</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
@@ -1020,33 +1020,33 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>receptionist</t>
+          <t>ticket seller</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>recepciós</t>
+          <t>jegyárus</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>前台</t>
+          <t>售票员</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.8052695573955293</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="E16" t="n">
-        <v>1.248227959698474</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4429584023029443</v>
+        <v>-0.106060606060606</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.419779693822302</v>
+        <v>-0.5641784799800005</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1601102533731725</v>
+        <v>0.5762078195213023</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -1058,36 +1058,36 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>modell</t>
+          <t>tanár</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>模特</t>
+          <t>教师</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.147187682445409</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6797721320429547</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4674155504024545</v>
+        <v>-0.5416666666666666</v>
       </c>
       <c r="G17" t="n">
-        <v>1.074247304066643</v>
+        <v>-2.113894473236767</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2864330436197982</v>
+        <v>0.0416603615807663</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="b">
         <v>0</v>
@@ -1110,22 +1110,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.460891483413896</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3008432951212524</v>
+        <v>-0.75</v>
       </c>
       <c r="F18" t="n">
-        <v>1.160048188292643</v>
+        <v>1.75</v>
       </c>
       <c r="G18" t="n">
-        <v>1.217581108829104</v>
+        <v>7.312199986209629</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2274762384088194</v>
+        <v>5.736293580683683e-09</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
@@ -1134,33 +1134,33 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>accountant</t>
+          <t>student</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>könyvelő</t>
+          <t>diák</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>会计</t>
+          <t>学生</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.8411988109897802</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8227556320173597</v>
+        <v>-0.04166666666666666</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01844317897242054</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03331449921116954</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9735194295108621</v>
+        <v>0.3277158061428587</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -1172,33 +1172,33 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>architect</t>
+          <t>waiter; server</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>építész</t>
+          <t>felszolgáló</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>建筑师</t>
+          <t>服务员</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.7129434487322858</v>
+        <v>-0.1590909090909091</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9176492082602703</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2047057595279845</v>
+        <v>-0.2424242424242424</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.1022796617540519</v>
+        <v>-1.571478828835568</v>
       </c>
       <c r="H20" t="n">
-        <v>0.918829563646351</v>
+        <v>0.120921043179891</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
@@ -1210,33 +1210,33 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>gardener</t>
+          <t>judge</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>kertész</t>
+          <t>bíró</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>园丁</t>
+          <t>法官</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.6393998807043083</v>
+        <v>-0.1818181818181818</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8751079952608321</v>
+        <v>-0.375</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2357081145565237</v>
+        <v>0.1931818181818182</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1437727181350206</v>
+        <v>1.137359285196932</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8860968100518363</v>
+        <v>0.2617076106771504</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -1262,22 +1262,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.632502874851265</v>
+        <v>-0.5454545454545454</v>
       </c>
       <c r="E22" t="n">
-        <v>0.787502719453899</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1549998446026341</v>
+        <v>-0.337121212121212</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1217526264886086</v>
+        <v>-2.054339620052613</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9034467727536019</v>
+        <v>0.04627231293429205</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
@@ -1286,33 +1286,33 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>waiter</t>
+          <t>scientist</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pincér</t>
+          <t>tudós</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>服务员</t>
+          <t>科学家</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.3756426803280242</v>
+        <v>-0.4090909090909091</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7066890219319147</v>
+        <v>-0.4583333333333333</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.3310463416038906</v>
+        <v>0.0492424242424242</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.3922879888413415</v>
+        <v>0.2675243827289994</v>
       </c>
       <c r="H23" t="n">
-        <v>0.6960554524329807</v>
+        <v>0.7903159835620165</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -1324,36 +1324,36 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>secretary</t>
+          <t>prosecutor</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>titkár</t>
+          <t>ügyész</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>秘书</t>
+          <t>检察官</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.1664367493548222</v>
+        <v>-0.6818181818181818</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9141969250653722</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.7477601757105501</v>
+        <v>-0.2651515151515151</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.45295135159253</v>
+        <v>-1.29631838610589</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001155450226851422</v>
+        <v>0.2025301752938543</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="b">
         <v>0</v>
@@ -1362,33 +1362,33 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>director</t>
+          <t>manager</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>rendező</t>
+          <t>menedzser</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>导演</t>
+          <t>高管</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.516848715230487</v>
+        <v>-0.6818181818181818</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5429650008937037</v>
+        <v>-0.5</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.02611628566321667</v>
+        <v>-0.1818181818181818</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.01806103265014593</v>
+        <v>-0.8932259348678961</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9856419339864073</v>
+        <v>0.3767374182940921</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -1400,36 +1400,36 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>pathologist</t>
+          <t>gardener</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>kórboncnok</t>
+          <t>kertész</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>法医</t>
+          <t>园丁</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.5253197417791621</v>
+        <v>-0.9090909090909091</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4428700260073155</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08244971577184662</v>
+        <v>-0.4924242424242424</v>
       </c>
       <c r="G26" t="n">
-        <v>0.06191263746607177</v>
+        <v>-2.073820206781514</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9508100296821365</v>
+        <v>0.04500389931624605</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="b">
         <v>0</v>
@@ -1438,71 +1438,71 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>farmer</t>
+          <t>professor</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>földműves</t>
+          <t>professzor</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>农民</t>
+          <t>教授</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.2115425618873981</v>
+        <v>-0.9090909090909091</v>
       </c>
       <c r="E27" t="n">
-        <v>0.740648369352944</v>
+        <v>-0.4583333333333333</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.5291058074655459</v>
+        <v>-0.4507575757575757</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.3359620752479485</v>
+        <v>-1.971422077450163</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7379152038184321</v>
+        <v>0.05578924006946497</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
       </c>
       <c r="J27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>lifeguard</t>
+          <t>pathologist</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>vízimentő</t>
+          <t>kórboncnok</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>救生员</t>
+          <t>法医</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.6078567763058594</v>
+        <v>-0.7727272727272727</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3317564100190563</v>
+        <v>-0.7916666666666666</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2761003662868031</v>
+        <v>0.01893939393939392</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1394562239259626</v>
+        <v>0.07802656104019065</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8894925945046861</v>
+        <v>0.938162136118182</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
@@ -1514,33 +1514,33 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>director</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>tanár</t>
+          <t>rendező</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>教师</t>
+          <t>导演</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.2957019570409536</v>
+        <v>-0.8636363636363636</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6310694188225237</v>
+        <v>-0.7083333333333334</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.3353674617815701</v>
+        <v>-0.1553030303030303</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.198005076343347</v>
+        <v>-0.7508952253053734</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2352147214182862</v>
+        <v>0.4567678185235475</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -1552,71 +1552,71 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>judge</t>
+          <t>architect</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>bíró</t>
+          <t>építész</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>法官</t>
+          <t>建筑师</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.4608549155398574</v>
+        <v>-1.181818181818182</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3008087038890543</v>
+        <v>-0.7083333333333334</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1600462116508031</v>
+        <v>-0.4734848484848485</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2206150464900246</v>
+        <v>-1.930481285265844</v>
       </c>
       <c r="H30" t="n">
-        <v>0.826037365242643</v>
+        <v>0.06014376954219001</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
       </c>
       <c r="J30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CEO</t>
+          <t>chef</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>vezérigazgató</t>
+          <t>szakács</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>董事长</t>
+          <t>厨师</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.2620455812021354</v>
+        <v>-0.8636363636363636</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4370701443803983</v>
+        <v>-1.041666666666667</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.1750245631782629</v>
+        <v>0.1780303030303031</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.1137714191897364</v>
+        <v>0.8264912815316227</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9097473988206721</v>
+        <v>0.4129899911933281</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -1628,36 +1628,36 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>pilot</t>
+          <t>farmer</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pilóta</t>
+          <t>földműves</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>飞行员</t>
+          <t>农民</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.08028224849280179</v>
+        <v>-1.5</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4272940188445424</v>
+        <v>-0.5416666666666666</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.3470117703517406</v>
+        <v>-0.9583333333333334</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.20347752814939</v>
+        <v>-4.2781625152861</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8393578083174007</v>
+        <v>0.0001002275601044132</v>
       </c>
       <c r="I32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="b">
         <v>0</v>
@@ -1666,33 +1666,33 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>chef</t>
+          <t>engineer</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>szakács</t>
+          <t>mérnök</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>厨师</t>
+          <t>工程师</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.2819104436170402</v>
+        <v>-1.181818181818182</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1045098790972002</v>
+        <v>-0.875</v>
       </c>
       <c r="F33" t="n">
-        <v>0.17740056451984</v>
+        <v>-0.3068181818181819</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1609752898997194</v>
+        <v>-1.227569452533109</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8725791846628935</v>
+        <v>0.2261436495059367</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -1704,71 +1704,71 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>programmer</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>programozó</t>
+          <t>vezérigazgató</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>程序员</t>
+          <t>董事长</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.0389285145512292</v>
+        <v>-1.272727272727273</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1719594056565682</v>
+        <v>-0.875</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.133030891105339</v>
+        <v>-0.3977272727272727</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.09573018900614018</v>
+        <v>-1.868613756136638</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9240106405116182</v>
+        <v>0.06835182058184208</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
       </c>
       <c r="J34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>soldier</t>
+          <t>police officer</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>katona</t>
+          <t>rendőr</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>军人</t>
+          <t>警察</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>-0.2143712397095195</v>
+        <v>-1.363636363636364</v>
       </c>
       <c r="E35" t="n">
-        <v>0.256675854328833</v>
+        <v>-1.125</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.4710470940383525</v>
+        <v>-0.2386363636363635</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.3106033417460479</v>
+        <v>-1.138167796810742</v>
       </c>
       <c r="H35" t="n">
-        <v>0.7570348897552219</v>
+        <v>0.2618962651646959</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -1780,33 +1780,33 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>firefighter</t>
+          <t>programmer</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>tűzoltó</t>
+          <t>programozó</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>消防员</t>
+          <t>程序员</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-0.2508792421020838</v>
+        <v>-1.409090909090909</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.04812901279926868</v>
+        <v>-1.083333333333333</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.2027502293028151</v>
+        <v>-0.3257575757575759</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.1096779513923369</v>
+        <v>-1.463305286973424</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9129813206929136</v>
+        <v>0.1504996708915435</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -1818,33 +1818,33 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>manager</t>
+          <t>worker</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>menedzser</t>
+          <t>munkás</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>高管</t>
+          <t>工人</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>-0.2752664689428957</v>
+        <v>-1.545454545454545</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.1793061192703068</v>
+        <v>-1.125</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.09596034967258896</v>
+        <v>-0.4204545454545454</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.3482864858665806</v>
+        <v>-1.65843372970663</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7286858204480503</v>
+        <v>0.1046906003137016</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
@@ -1856,36 +1856,36 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>engineer</t>
+          <t>pilot</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>mérnök</t>
+          <t>pilóta</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>工程师</t>
+          <t>飞行员</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-0.345698929788704</v>
+        <v>-1.681818181818182</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.1918773660163416</v>
+        <v>-1</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.1538215637723624</v>
+        <v>-0.6818181818181819</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.2214388823794657</v>
+        <v>-3.187230903160563</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8254008444397521</v>
+        <v>0.002735590921450158</v>
       </c>
       <c r="I38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="b">
         <v>0</v>
@@ -1894,33 +1894,33 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>security guard</t>
+          <t>lifeguard</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>biztonsági őr</t>
+          <t>vízimentő</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>保安</t>
+          <t>救生员</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-0.2987733082749943</v>
+        <v>-1.227272727272727</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.2826233997195893</v>
+        <v>-1.5</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.01614990855540499</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.01112394029493432</v>
+        <v>1.021553816602953</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9911564331863734</v>
+        <v>0.3126708528207452</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
@@ -1932,36 +1932,36 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>professor</t>
+          <t>soldier</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>professzor</t>
+          <t>katona</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>教授</t>
+          <t>军人</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>-0.4309894664573204</v>
+        <v>-1.863636363636364</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.1644494952974653</v>
+        <v>-1</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.2665399711598551</v>
+        <v>-0.8636363636363635</v>
       </c>
       <c r="G40" t="n">
-        <v>-1.17222831495633</v>
+        <v>-4.086543426949811</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2454170565463505</v>
+        <v>0.00018377507992935</v>
       </c>
       <c r="I40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="b">
         <v>0</v>
@@ -1970,33 +1970,33 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>worker</t>
+          <t>security guard</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>munkás</t>
+          <t>biztonsági őr</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>工人</t>
+          <t>保安</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>-0.7882028658213663</v>
+        <v>-1.954545454545455</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.5564081163175086</v>
+        <v>-1.791666666666667</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2317947495038577</v>
+        <v>-0.1628787878787878</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.5382346011294635</v>
+        <v>-0.9050529619874194</v>
       </c>
       <c r="H41" t="n">
-        <v>0.5921596910835691</v>
+        <v>0.370786175219575</v>
       </c>
       <c r="I41" t="b">
         <v>0</v>
@@ -2008,36 +2008,36 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>police officer</t>
+          <t>firefighter</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>rendőr</t>
+          <t>tűzoltó</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>警察</t>
+          <t>消防员</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>-0.8393539413754092</v>
+        <v>-2.272727272727273</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.7129023769767384</v>
+        <v>-1.791666666666667</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.1264515643986708</v>
+        <v>-0.4810606060606062</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.5395929186898031</v>
+        <v>-2.1860799100449</v>
       </c>
       <c r="H42" t="n">
-        <v>0.5912706289420576</v>
+        <v>0.03429839325138778</v>
       </c>
       <c r="I42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="b">
         <v>0</v>

--- a/occupations_comparison.xlsx
+++ b/occupations_comparison.xlsx
@@ -526,36 +526,36 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>nurse</t>
+          <t>housekeeper</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>nővér</t>
+          <t>házvezető</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>护士</t>
+          <t>家政员</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.318181818181818</v>
+        <v>1.772727272727273</v>
       </c>
       <c r="E3" t="n">
-        <v>1.583333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2651515151515151</v>
+        <v>1.272727272727273</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.122657639589635</v>
+        <v>5.02978833658533</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2661014681368459</v>
+        <v>1.000443051942479e-05</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -564,33 +564,33 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>housekeeper</t>
+          <t>receptionist</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>házvezető</t>
+          <t>recepciós</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>家政员</t>
+          <t>前台</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.772727272727273</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5</v>
+        <v>1.375</v>
       </c>
       <c r="F4" t="n">
-        <v>1.272727272727273</v>
+        <v>-0.6931818181818182</v>
       </c>
       <c r="G4" t="n">
-        <v>5.02978833658533</v>
+        <v>-2.611683272919604</v>
       </c>
       <c r="H4" t="n">
-        <v>1.000443051942479e-05</v>
+        <v>0.01237725738399187</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -602,33 +602,33 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>receptionist</t>
+          <t>nurse</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>recepciós</t>
+          <t>ápoló</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前台</t>
+          <t>护士</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="E5" t="n">
-        <v>1.375</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6931818181818182</v>
+        <v>-1.174242424242424</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.611683272919604</v>
+        <v>-3.980736356109629</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01237725738399187</v>
+        <v>0.0004721380862215187</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -640,36 +640,36 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>flight attendant</t>
+          <t>cashier</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>légiutas-kísérő</t>
+          <t>pénztáros</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>空服员</t>
+          <t>收银员</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.454545454545455</v>
+        <v>1.045454545454545</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.875</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8712121212121212</v>
+        <v>0.1704545454545454</v>
       </c>
       <c r="G6" t="n">
-        <v>4.329116625729191</v>
+        <v>0.7502582855355107</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0001050419318709086</v>
+        <v>0.4574500137904128</v>
       </c>
       <c r="I6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -678,36 +678,36 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>cashier</t>
+          <t>flight attendant</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pénztáros</t>
+          <t>légiutas-kísérő</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>收银员</t>
+          <t>乘务员</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.045454545454545</v>
+        <v>1.454545454545455</v>
       </c>
       <c r="E7" t="n">
-        <v>0.875</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1704545454545454</v>
+        <v>0.9962121212121213</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7502582855355107</v>
+        <v>4.587243492317245</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4574500137904128</v>
+        <v>4.222435277709455e-05</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
@@ -1172,12 +1172,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>waiter; server</t>
+          <t>waiter</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>felszolgáló</t>
+          <t>pincér</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1186,22 +1186,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-0.1590909090909091</v>
+        <v>-0.5</v>
       </c>
       <c r="E20" t="n">
         <v>0.08333333333333333</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2424242424242424</v>
+        <v>-0.5833333333333334</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.571478828835568</v>
+        <v>-2.631147236438226</v>
       </c>
       <c r="H20" t="n">
-        <v>0.120921043179891</v>
+        <v>0.01372319612133357</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
